--- a/BT_BOM.xlsx
+++ b/BT_BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wondr\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robert\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0E915DD-A366-4C6C-9A37-26E9CB998880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED019B2B-936F-47FA-8B8E-EF29A0FA82F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-31850" yWindow="2330" windowWidth="22490" windowHeight="18520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="1470" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -321,7 +321,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -332,14 +332,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="1" applyFill="1"/>
@@ -653,10 +645,10 @@
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="40" customWidth="1"/>
@@ -665,31 +657,31 @@
     <col min="5" max="5" width="80" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="21" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E1" s="13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="1">
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -697,14 +689,14 @@
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="1">
         <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -712,288 +704,288 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="2">
         <v>4</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="2">
         <v>1</v>
       </c>
       <c r="D5" s="2"/>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="2">
         <v>4</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="2">
         <v>4</v>
       </c>
       <c r="D7" s="2"/>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="2">
         <v>1</v>
       </c>
       <c r="D8" s="2"/>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="2">
         <v>4</v>
       </c>
       <c r="D9" s="2"/>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="2">
         <v>4</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="2">
         <v>5</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="3">
         <v>13</v>
       </c>
       <c r="D12" s="3"/>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="3">
         <v>16</v>
       </c>
       <c r="D13" s="3"/>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="4">
         <v>12</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>31</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="5">
         <v>4</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>31</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="5">
         <v>4</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>31</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="14">
-        <v>8</v>
+      <c r="C17" s="5">
+        <v>24</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>31</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="5">
         <v>78</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>31</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="14">
+      <c r="C19" s="5">
         <v>16</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>31</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C20" s="5">
         <v>70</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>31</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="14">
+      <c r="C21" s="5">
         <v>8</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>39</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="15">
+      <c r="C22" s="6">
         <v>20</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>39</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="15">
+      <c r="C23" s="6">
         <v>4</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>39</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="15">
+      <c r="C24" s="6">
         <v>4</v>
       </c>
       <c r="D24" s="6" t="s">
@@ -1001,91 +993,91 @@
       </c>
       <c r="E24" s="6"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>44</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="16">
+      <c r="C25" s="7">
         <v>4</v>
       </c>
       <c r="D25" s="7"/>
-      <c r="E25" s="20" t="s">
+      <c r="E25" s="12" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>44</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C26" s="16">
+      <c r="C26" s="7">
         <v>4</v>
       </c>
       <c r="D26" s="7"/>
-      <c r="E26" s="20" t="s">
+      <c r="E26" s="12" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>44</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="16">
+      <c r="C27" s="7">
         <v>8</v>
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>44</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="16">
+      <c r="C28" s="7">
         <v>20</v>
       </c>
       <c r="D28" s="7"/>
-      <c r="E28" s="20" t="s">
+      <c r="E28" s="12" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>44</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C29" s="16">
+      <c r="C29" s="7">
         <v>1</v>
       </c>
       <c r="D29" s="7"/>
-      <c r="E29" s="20"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E29" s="12"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>44</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C30" s="16">
+      <c r="C30" s="7">
         <v>2</v>
       </c>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>53</v>
       </c>
@@ -1098,7 +1090,7 @@
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>53</v>
       </c>
@@ -1111,92 +1103,92 @@
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>58</v>
       </c>
       <c r="B33" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="17">
+      <c r="C33" s="9">
         <v>2</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>58</v>
       </c>
       <c r="B34" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C34" s="17">
+      <c r="C34" s="9">
         <v>4</v>
       </c>
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>58</v>
       </c>
       <c r="B35" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="17">
+      <c r="C35" s="9">
         <v>4</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>58</v>
       </c>
       <c r="B36" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C36" s="17">
+      <c r="C36" s="9">
         <v>4</v>
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
         <v>58</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C37" s="17">
+      <c r="C37" s="9">
         <v>2</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="9"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C38" s="10">
+      <c r="C38" s="1">
         <v>12</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C39" s="10">
+      <c r="C39" s="1">
         <v>12</v>
       </c>
       <c r="D39" s="1"/>
